--- a/storage/app/public/data/danhsachthuoc.xlsx
+++ b/storage/app/public/data/danhsachthuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\v20\storage\app\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\20V\storage\app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="429">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="J301" sqref="J301"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:K305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8689,9 +8689,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" ht="51" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A200" s="5"/>
       <c r="B200" s="5">
         <v>75</v>
       </c>

--- a/storage/app/public/data/danhsachthuoc.xlsx
+++ b/storage/app/public/data/danhsachthuoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="429">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:K305"/>
+    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
@@ -8689,7 +8689,9 @@
       </c>
     </row>
     <row r="200" spans="1:11" ht="51" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
+      <c r="A200" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="B200" s="5">
         <v>75</v>
       </c>

--- a/storage/app/public/data/danhsachthuoc.xlsx
+++ b/storage/app/public/data/danhsachthuoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="430">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -1311,6 +1311,9 @@
   </si>
   <si>
     <t>Công ty TNHH B.Braun Việt Nam</t>
+  </si>
+  <si>
+    <t>Tên phân loại</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1354,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1410,7 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1434,6 +1443,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1715,15 +1725,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:L305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="O304" sqref="O304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,8 +1767,11 @@
       <c r="K1" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1792,8 +1805,11 @@
       <c r="K2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1827,8 +1843,11 @@
       <c r="K3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1862,8 +1881,11 @@
       <c r="K4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1897,8 +1919,11 @@
       <c r="K5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1932,8 +1957,11 @@
       <c r="K6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1967,8 +1995,11 @@
       <c r="K7" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2033,11 @@
       <c r="K8" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -2037,8 +2071,11 @@
       <c r="K9" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -2072,8 +2109,11 @@
       <c r="K10" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="L10" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -2107,8 +2147,11 @@
       <c r="K11" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L11" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -2142,8 +2185,11 @@
       <c r="K12" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L12" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -2177,8 +2223,11 @@
       <c r="K13" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L13" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -2212,8 +2261,11 @@
       <c r="K14" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L14" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -2247,8 +2299,11 @@
       <c r="K15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L15" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -2282,8 +2337,11 @@
       <c r="K16" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -2317,8 +2375,11 @@
       <c r="K17" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="L17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>90</v>
       </c>
@@ -2352,8 +2413,11 @@
       <c r="K18" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>93</v>
       </c>
@@ -2387,8 +2451,11 @@
       <c r="K19" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>100</v>
       </c>
@@ -2422,8 +2489,11 @@
       <c r="K20" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L20" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>103</v>
       </c>
@@ -2457,8 +2527,11 @@
       <c r="K21" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L21" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
@@ -2492,8 +2565,11 @@
       <c r="K22" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L22" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>112</v>
       </c>
@@ -2527,8 +2603,11 @@
       <c r="K23" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L23" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>117</v>
       </c>
@@ -2562,8 +2641,11 @@
       <c r="K24" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>123</v>
       </c>
@@ -2597,8 +2679,11 @@
       <c r="K25" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L25" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>126</v>
       </c>
@@ -2632,8 +2717,11 @@
       <c r="K26" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L26" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -2667,8 +2755,11 @@
       <c r="K27" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L27" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>137</v>
       </c>
@@ -2702,8 +2793,11 @@
       <c r="K28" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L28" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
@@ -2737,8 +2831,11 @@
       <c r="K29" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L29" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>145</v>
       </c>
@@ -2772,8 +2869,11 @@
       <c r="K30" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L30" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>151</v>
       </c>
@@ -2807,8 +2907,11 @@
       <c r="K31" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L31" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>153</v>
       </c>
@@ -2842,8 +2945,11 @@
       <c r="K32" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L32" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>156</v>
       </c>
@@ -2877,8 +2983,11 @@
       <c r="K33" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L33" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>162</v>
       </c>
@@ -2912,8 +3021,11 @@
       <c r="K34" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="L34" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
@@ -2947,8 +3059,11 @@
       <c r="K35" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L35" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>171</v>
       </c>
@@ -2982,8 +3097,11 @@
       <c r="K36" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L36" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>175</v>
       </c>
@@ -3017,8 +3135,11 @@
       <c r="K37" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L37" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>182</v>
       </c>
@@ -3052,8 +3173,11 @@
       <c r="K38" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L38" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>182</v>
       </c>
@@ -3087,8 +3211,11 @@
       <c r="K39" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L39" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>189</v>
       </c>
@@ -3122,8 +3249,11 @@
       <c r="K40" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L40" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>193</v>
       </c>
@@ -3157,8 +3287,11 @@
       <c r="K41" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L41" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>196</v>
       </c>
@@ -3192,8 +3325,11 @@
       <c r="K42" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L42" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>199</v>
       </c>
@@ -3227,8 +3363,11 @@
       <c r="K43" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L43" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>203</v>
       </c>
@@ -3262,8 +3401,11 @@
       <c r="K44" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L44" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>207</v>
       </c>
@@ -3297,8 +3439,11 @@
       <c r="K45" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L45" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>209</v>
       </c>
@@ -3332,8 +3477,11 @@
       <c r="K46" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L46" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>210</v>
       </c>
@@ -3367,8 +3515,11 @@
       <c r="K47" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L47" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>212</v>
       </c>
@@ -3402,8 +3553,11 @@
       <c r="K48" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L48" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>215</v>
       </c>
@@ -3437,8 +3591,11 @@
       <c r="K49" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L49" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>217</v>
       </c>
@@ -3472,8 +3629,11 @@
       <c r="K50" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L50" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>218</v>
       </c>
@@ -3507,8 +3667,11 @@
       <c r="K51" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L51" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>225</v>
       </c>
@@ -3542,8 +3705,11 @@
       <c r="K52" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L52" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>227</v>
       </c>
@@ -3577,8 +3743,11 @@
       <c r="K53" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L53" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>232</v>
       </c>
@@ -3612,8 +3781,11 @@
       <c r="K54" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L54" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>238</v>
       </c>
@@ -3647,8 +3819,11 @@
       <c r="K55" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L55" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>243</v>
       </c>
@@ -3682,8 +3857,11 @@
       <c r="K56" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L56" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>249</v>
       </c>
@@ -3717,8 +3895,11 @@
       <c r="K57" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L57" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>250</v>
       </c>
@@ -3752,8 +3933,11 @@
       <c r="K58" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L58" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>255</v>
       </c>
@@ -3787,8 +3971,11 @@
       <c r="K59" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L59" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>260</v>
       </c>
@@ -3822,8 +4009,11 @@
       <c r="K60" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L60" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>260</v>
       </c>
@@ -3857,8 +4047,11 @@
       <c r="K61" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L61" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>260</v>
       </c>
@@ -3892,8 +4085,11 @@
       <c r="K62" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L62" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>267</v>
       </c>
@@ -3927,8 +4123,11 @@
       <c r="K63" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L63" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>270</v>
       </c>
@@ -3962,8 +4161,11 @@
       <c r="K64" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L64" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>274</v>
       </c>
@@ -3997,8 +4199,11 @@
       <c r="K65" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L65" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>278</v>
       </c>
@@ -4032,8 +4237,11 @@
       <c r="K66" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L66" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>281</v>
       </c>
@@ -4067,8 +4275,11 @@
       <c r="K67" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L67" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>285</v>
       </c>
@@ -4102,8 +4313,11 @@
       <c r="K68" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L68" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>290</v>
       </c>
@@ -4137,8 +4351,11 @@
       <c r="K69" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L69" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>293</v>
       </c>
@@ -4172,8 +4389,11 @@
       <c r="K70" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L70" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>298</v>
       </c>
@@ -4207,8 +4427,11 @@
       <c r="K71" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L71" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>301</v>
       </c>
@@ -4242,8 +4465,11 @@
       <c r="K72" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L72" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>307</v>
       </c>
@@ -4277,8 +4503,11 @@
       <c r="K73" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L73" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>312</v>
       </c>
@@ -4312,8 +4541,11 @@
       <c r="K74" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L74" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>316</v>
       </c>
@@ -4347,8 +4579,11 @@
       <c r="K75" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L75" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>318</v>
       </c>
@@ -4382,8 +4617,11 @@
       <c r="K76" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L76" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>321</v>
       </c>
@@ -4417,8 +4655,11 @@
       <c r="K77" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L77" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>325</v>
       </c>
@@ -4452,8 +4693,11 @@
       <c r="K78" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L78" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>329</v>
       </c>
@@ -4487,8 +4731,11 @@
       <c r="K79" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L79" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>331</v>
       </c>
@@ -4522,8 +4769,11 @@
       <c r="K80" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L80" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>336</v>
       </c>
@@ -4557,8 +4807,11 @@
       <c r="K81" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L81" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>339</v>
       </c>
@@ -4592,8 +4845,11 @@
       <c r="K82" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L82" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>343</v>
       </c>
@@ -4627,8 +4883,11 @@
       <c r="K83" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L83" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>345</v>
       </c>
@@ -4662,8 +4921,11 @@
       <c r="K84" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L84" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>347</v>
       </c>
@@ -4697,8 +4959,11 @@
       <c r="K85" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L85" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>348</v>
       </c>
@@ -4732,8 +4997,11 @@
       <c r="K86" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L86" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>353</v>
       </c>
@@ -4767,8 +5035,11 @@
       <c r="K87" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L87" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>355</v>
       </c>
@@ -4802,8 +5073,11 @@
       <c r="K88" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L88" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>358</v>
       </c>
@@ -4837,8 +5111,11 @@
       <c r="K89" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L89" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>361</v>
       </c>
@@ -4872,8 +5149,11 @@
       <c r="K90" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="L90" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>363</v>
       </c>
@@ -4907,8 +5187,11 @@
       <c r="K91" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L91" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>369</v>
       </c>
@@ -4942,8 +5225,11 @@
       <c r="K92" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L92" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>373</v>
       </c>
@@ -4977,8 +5263,11 @@
       <c r="K93" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L93" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>376</v>
       </c>
@@ -5012,8 +5301,11 @@
       <c r="K94" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L94" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>379</v>
       </c>
@@ -5047,8 +5339,11 @@
       <c r="K95" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L95" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>383</v>
       </c>
@@ -5082,8 +5377,11 @@
       <c r="K96" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L96" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>385</v>
       </c>
@@ -5117,8 +5415,11 @@
       <c r="K97" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="L97" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>389</v>
       </c>
@@ -5152,8 +5453,11 @@
       <c r="K98" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L98" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>394</v>
       </c>
@@ -5187,8 +5491,11 @@
       <c r="K99" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L99" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>399</v>
       </c>
@@ -5222,8 +5529,11 @@
       <c r="K100" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L100" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>10</v>
       </c>
@@ -5257,8 +5567,9 @@
       <c r="K101" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>17</v>
       </c>
@@ -5292,8 +5603,9 @@
       <c r="K102" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>23</v>
       </c>
@@ -5327,8 +5639,9 @@
       <c r="K103" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>27</v>
       </c>
@@ -5362,8 +5675,9 @@
       <c r="K104" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>34</v>
       </c>
@@ -5397,8 +5711,9 @@
       <c r="K105" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>40</v>
       </c>
@@ -5432,8 +5747,9 @@
       <c r="K106" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>45</v>
       </c>
@@ -5467,8 +5783,9 @@
       <c r="K107" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>49</v>
       </c>
@@ -5502,8 +5819,9 @@
       <c r="K108" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>52</v>
       </c>
@@ -5537,8 +5855,9 @@
       <c r="K109" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
@@ -5572,8 +5891,9 @@
       <c r="K110" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>61</v>
       </c>
@@ -5607,8 +5927,9 @@
       <c r="K111" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>66</v>
       </c>
@@ -5642,8 +5963,9 @@
       <c r="K112" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>72</v>
       </c>
@@ -5677,8 +5999,9 @@
       <c r="K113" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>78</v>
       </c>
@@ -5712,8 +6035,9 @@
       <c r="K114" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>82</v>
       </c>
@@ -5747,8 +6071,9 @@
       <c r="K115" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>85</v>
       </c>
@@ -5782,8 +6107,9 @@
       <c r="K116" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>90</v>
       </c>
@@ -5817,8 +6143,9 @@
       <c r="K117" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>93</v>
       </c>
@@ -5852,8 +6179,9 @@
       <c r="K118" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>100</v>
       </c>
@@ -5887,8 +6215,9 @@
       <c r="K119" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>103</v>
       </c>
@@ -5922,8 +6251,9 @@
       <c r="K120" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>109</v>
       </c>
@@ -5957,8 +6287,9 @@
       <c r="K121" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>112</v>
       </c>
@@ -5992,8 +6323,9 @@
       <c r="K122" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>117</v>
       </c>
@@ -6027,8 +6359,9 @@
       <c r="K123" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
@@ -6062,8 +6395,9 @@
       <c r="K124" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L124" s="9"/>
+    </row>
+    <row r="125" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>126</v>
       </c>
@@ -6097,8 +6431,9 @@
       <c r="K125" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>132</v>
       </c>
@@ -6132,8 +6467,9 @@
       <c r="K126" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>137</v>
       </c>
@@ -6167,8 +6503,9 @@
       <c r="K127" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L127" s="9"/>
+    </row>
+    <row r="128" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>141</v>
       </c>
@@ -6202,8 +6539,9 @@
       <c r="K128" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L128" s="9"/>
+    </row>
+    <row r="129" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>145</v>
       </c>
@@ -6237,8 +6575,9 @@
       <c r="K129" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L129" s="9"/>
+    </row>
+    <row r="130" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>151</v>
       </c>
@@ -6272,8 +6611,9 @@
       <c r="K130" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>153</v>
       </c>
@@ -6307,8 +6647,9 @@
       <c r="K131" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>156</v>
       </c>
@@ -6342,8 +6683,9 @@
       <c r="K132" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L132" s="9"/>
+    </row>
+    <row r="133" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>162</v>
       </c>
@@ -6377,8 +6719,9 @@
       <c r="K133" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="L133" s="9"/>
+    </row>
+    <row r="134" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>165</v>
       </c>
@@ -6412,8 +6755,9 @@
       <c r="K134" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L134" s="9"/>
+    </row>
+    <row r="135" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>171</v>
       </c>
@@ -6447,8 +6791,9 @@
       <c r="K135" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>175</v>
       </c>
@@ -6482,8 +6827,9 @@
       <c r="K136" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L136" s="9"/>
+    </row>
+    <row r="137" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>182</v>
       </c>
@@ -6517,8 +6863,9 @@
       <c r="K137" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L137" s="9"/>
+    </row>
+    <row r="138" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>182</v>
       </c>
@@ -6552,8 +6899,9 @@
       <c r="K138" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L138" s="9"/>
+    </row>
+    <row r="139" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>189</v>
       </c>
@@ -6587,8 +6935,9 @@
       <c r="K139" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L139" s="9"/>
+    </row>
+    <row r="140" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>193</v>
       </c>
@@ -6622,8 +6971,9 @@
       <c r="K140" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>196</v>
       </c>
@@ -6657,8 +7007,9 @@
       <c r="K141" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L141" s="9"/>
+    </row>
+    <row r="142" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>199</v>
       </c>
@@ -6692,8 +7043,9 @@
       <c r="K142" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L142" s="9"/>
+    </row>
+    <row r="143" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>203</v>
       </c>
@@ -6727,8 +7079,9 @@
       <c r="K143" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L143" s="9"/>
+    </row>
+    <row r="144" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>207</v>
       </c>
@@ -6762,8 +7115,9 @@
       <c r="K144" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L144" s="9"/>
+    </row>
+    <row r="145" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>209</v>
       </c>
@@ -6797,8 +7151,9 @@
       <c r="K145" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L145" s="9"/>
+    </row>
+    <row r="146" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>210</v>
       </c>
@@ -6832,8 +7187,9 @@
       <c r="K146" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L146" s="9"/>
+    </row>
+    <row r="147" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>212</v>
       </c>
@@ -6867,8 +7223,9 @@
       <c r="K147" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L147" s="9"/>
+    </row>
+    <row r="148" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>215</v>
       </c>
@@ -6902,8 +7259,9 @@
       <c r="K148" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L148" s="9"/>
+    </row>
+    <row r="149" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>217</v>
       </c>
@@ -6937,8 +7295,9 @@
       <c r="K149" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L149" s="9"/>
+    </row>
+    <row r="150" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>218</v>
       </c>
@@ -6972,8 +7331,9 @@
       <c r="K150" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L150" s="9"/>
+    </row>
+    <row r="151" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>225</v>
       </c>
@@ -7007,8 +7367,9 @@
       <c r="K151" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L151" s="9"/>
+    </row>
+    <row r="152" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>227</v>
       </c>
@@ -7042,8 +7403,9 @@
       <c r="K152" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L152" s="9"/>
+    </row>
+    <row r="153" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>232</v>
       </c>
@@ -7077,8 +7439,9 @@
       <c r="K153" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L153" s="9"/>
+    </row>
+    <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>238</v>
       </c>
@@ -7112,8 +7475,9 @@
       <c r="K154" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L154" s="9"/>
+    </row>
+    <row r="155" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>243</v>
       </c>
@@ -7147,8 +7511,9 @@
       <c r="K155" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L155" s="9"/>
+    </row>
+    <row r="156" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>249</v>
       </c>
@@ -7182,8 +7547,9 @@
       <c r="K156" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L156" s="9"/>
+    </row>
+    <row r="157" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>250</v>
       </c>
@@ -7217,8 +7583,9 @@
       <c r="K157" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L157" s="9"/>
+    </row>
+    <row r="158" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>255</v>
       </c>
@@ -7252,8 +7619,9 @@
       <c r="K158" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L158" s="9"/>
+    </row>
+    <row r="159" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>260</v>
       </c>
@@ -7287,8 +7655,9 @@
       <c r="K159" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L159" s="9"/>
+    </row>
+    <row r="160" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>260</v>
       </c>
@@ -7322,8 +7691,9 @@
       <c r="K160" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>260</v>
       </c>
@@ -7357,8 +7727,9 @@
       <c r="K161" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>267</v>
       </c>
@@ -7392,8 +7763,9 @@
       <c r="K162" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>270</v>
       </c>
@@ -7427,8 +7799,9 @@
       <c r="K163" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>274</v>
       </c>
@@ -7462,8 +7835,9 @@
       <c r="K164" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>278</v>
       </c>
@@ -7497,8 +7871,9 @@
       <c r="K165" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L165" s="9"/>
+    </row>
+    <row r="166" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>281</v>
       </c>
@@ -7532,8 +7907,9 @@
       <c r="K166" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L166" s="9"/>
+    </row>
+    <row r="167" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>285</v>
       </c>
@@ -7567,8 +7943,9 @@
       <c r="K167" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L167" s="9"/>
+    </row>
+    <row r="168" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>290</v>
       </c>
@@ -7602,8 +7979,9 @@
       <c r="K168" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L168" s="9"/>
+    </row>
+    <row r="169" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>293</v>
       </c>
@@ -7637,8 +8015,9 @@
       <c r="K169" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L169" s="9"/>
+    </row>
+    <row r="170" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>298</v>
       </c>
@@ -7672,8 +8051,9 @@
       <c r="K170" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L170" s="9"/>
+    </row>
+    <row r="171" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>301</v>
       </c>
@@ -7707,8 +8087,9 @@
       <c r="K171" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>307</v>
       </c>
@@ -7742,8 +8123,9 @@
       <c r="K172" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>312</v>
       </c>
@@ -7777,8 +8159,9 @@
       <c r="K173" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L173" s="9"/>
+    </row>
+    <row r="174" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>316</v>
       </c>
@@ -7812,8 +8195,9 @@
       <c r="K174" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L174" s="9"/>
+    </row>
+    <row r="175" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>318</v>
       </c>
@@ -7847,8 +8231,9 @@
       <c r="K175" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L175" s="9"/>
+    </row>
+    <row r="176" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>321</v>
       </c>
@@ -7882,8 +8267,9 @@
       <c r="K176" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L176" s="9"/>
+    </row>
+    <row r="177" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>325</v>
       </c>
@@ -7917,8 +8303,9 @@
       <c r="K177" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>329</v>
       </c>
@@ -7952,8 +8339,9 @@
       <c r="K178" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>331</v>
       </c>
@@ -7987,8 +8375,9 @@
       <c r="K179" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>336</v>
       </c>
@@ -8022,8 +8411,9 @@
       <c r="K180" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>339</v>
       </c>
@@ -8057,8 +8447,9 @@
       <c r="K181" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>343</v>
       </c>
@@ -8092,8 +8483,9 @@
       <c r="K182" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>345</v>
       </c>
@@ -8127,8 +8519,9 @@
       <c r="K183" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L183" s="9"/>
+    </row>
+    <row r="184" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>347</v>
       </c>
@@ -8162,8 +8555,9 @@
       <c r="K184" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L184" s="9"/>
+    </row>
+    <row r="185" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>348</v>
       </c>
@@ -8197,8 +8591,9 @@
       <c r="K185" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L185" s="9"/>
+    </row>
+    <row r="186" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>353</v>
       </c>
@@ -8232,8 +8627,9 @@
       <c r="K186" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L186" s="9"/>
+    </row>
+    <row r="187" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>355</v>
       </c>
@@ -8267,8 +8663,9 @@
       <c r="K187" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L187" s="9"/>
+    </row>
+    <row r="188" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>358</v>
       </c>
@@ -8302,8 +8699,9 @@
       <c r="K188" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L188" s="9"/>
+    </row>
+    <row r="189" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>361</v>
       </c>
@@ -8337,8 +8735,9 @@
       <c r="K189" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="L189" s="9"/>
+    </row>
+    <row r="190" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>363</v>
       </c>
@@ -8372,8 +8771,9 @@
       <c r="K190" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L190" s="9"/>
+    </row>
+    <row r="191" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>369</v>
       </c>
@@ -8407,8 +8807,9 @@
       <c r="K191" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L191" s="9"/>
+    </row>
+    <row r="192" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>373</v>
       </c>
@@ -8442,8 +8843,9 @@
       <c r="K192" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L192" s="9"/>
+    </row>
+    <row r="193" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>376</v>
       </c>
@@ -8477,8 +8879,9 @@
       <c r="K193" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L193" s="9"/>
+    </row>
+    <row r="194" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>379</v>
       </c>
@@ -8512,8 +8915,9 @@
       <c r="K194" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L194" s="9"/>
+    </row>
+    <row r="195" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>383</v>
       </c>
@@ -8547,8 +8951,9 @@
       <c r="K195" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L195" s="9"/>
+    </row>
+    <row r="196" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>385</v>
       </c>
@@ -8582,8 +8987,9 @@
       <c r="K196" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="L196" s="9"/>
+    </row>
+    <row r="197" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>389</v>
       </c>
@@ -8617,8 +9023,9 @@
       <c r="K197" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L197" s="9"/>
+    </row>
+    <row r="198" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>394</v>
       </c>
@@ -8652,8 +9059,9 @@
       <c r="K198" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L198" s="9"/>
+    </row>
+    <row r="199" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>399</v>
       </c>
@@ -8687,8 +9095,9 @@
       <c r="K199" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L199" s="9"/>
+    </row>
+    <row r="200" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>399</v>
       </c>
@@ -8722,8 +9131,11 @@
       <c r="K200" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L200" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>17</v>
       </c>
@@ -8757,8 +9169,11 @@
       <c r="K201" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L201" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>23</v>
       </c>
@@ -8792,8 +9207,11 @@
       <c r="K202" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L202" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>27</v>
       </c>
@@ -8827,8 +9245,11 @@
       <c r="K203" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L203" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>34</v>
       </c>
@@ -8862,8 +9283,11 @@
       <c r="K204" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L204" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>40</v>
       </c>
@@ -8897,8 +9321,11 @@
       <c r="K205" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L205" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>45</v>
       </c>
@@ -8932,8 +9359,11 @@
       <c r="K206" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L206" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>49</v>
       </c>
@@ -8967,8 +9397,11 @@
       <c r="K207" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L207" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>52</v>
       </c>
@@ -9002,8 +9435,11 @@
       <c r="K208" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="L208" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>56</v>
       </c>
@@ -9037,8 +9473,11 @@
       <c r="K209" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L209" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>61</v>
       </c>
@@ -9072,8 +9511,11 @@
       <c r="K210" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L210" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>66</v>
       </c>
@@ -9107,8 +9549,11 @@
       <c r="K211" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L211" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>72</v>
       </c>
@@ -9142,8 +9587,11 @@
       <c r="K212" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L212" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>78</v>
       </c>
@@ -9177,8 +9625,11 @@
       <c r="K213" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L213" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>82</v>
       </c>
@@ -9212,8 +9663,11 @@
       <c r="K214" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L214" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>85</v>
       </c>
@@ -9247,8 +9701,11 @@
       <c r="K215" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="L215" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>90</v>
       </c>
@@ -9282,8 +9739,11 @@
       <c r="K216" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L216" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>93</v>
       </c>
@@ -9317,8 +9777,11 @@
       <c r="K217" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L217" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>100</v>
       </c>
@@ -9352,8 +9815,11 @@
       <c r="K218" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L218" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>103</v>
       </c>
@@ -9387,8 +9853,11 @@
       <c r="K219" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L219" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>109</v>
       </c>
@@ -9422,8 +9891,11 @@
       <c r="K220" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L220" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>112</v>
       </c>
@@ -9457,8 +9929,11 @@
       <c r="K221" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L221" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>117</v>
       </c>
@@ -9492,8 +9967,11 @@
       <c r="K222" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L222" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>123</v>
       </c>
@@ -9527,8 +10005,11 @@
       <c r="K223" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L223" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>126</v>
       </c>
@@ -9562,8 +10043,11 @@
       <c r="K224" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L224" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>132</v>
       </c>
@@ -9597,8 +10081,11 @@
       <c r="K225" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L225" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>137</v>
       </c>
@@ -9632,8 +10119,11 @@
       <c r="K226" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L226" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>141</v>
       </c>
@@ -9667,8 +10157,11 @@
       <c r="K227" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L227" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>145</v>
       </c>
@@ -9702,8 +10195,11 @@
       <c r="K228" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L228" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>151</v>
       </c>
@@ -9737,8 +10233,11 @@
       <c r="K229" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L229" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>153</v>
       </c>
@@ -9772,8 +10271,11 @@
       <c r="K230" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L230" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>156</v>
       </c>
@@ -9807,8 +10309,11 @@
       <c r="K231" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L231" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>162</v>
       </c>
@@ -9842,8 +10347,11 @@
       <c r="K232" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="L232" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>165</v>
       </c>
@@ -9877,8 +10385,11 @@
       <c r="K233" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L233" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>171</v>
       </c>
@@ -9912,8 +10423,11 @@
       <c r="K234" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L234" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>175</v>
       </c>
@@ -9947,8 +10461,11 @@
       <c r="K235" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L235" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>182</v>
       </c>
@@ -9982,8 +10499,11 @@
       <c r="K236" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L236" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
         <v>182</v>
       </c>
@@ -10017,8 +10537,11 @@
       <c r="K237" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L237" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>189</v>
       </c>
@@ -10052,8 +10575,11 @@
       <c r="K238" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L238" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>193</v>
       </c>
@@ -10087,8 +10613,11 @@
       <c r="K239" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L239" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>196</v>
       </c>
@@ -10122,8 +10651,11 @@
       <c r="K240" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L240" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>199</v>
       </c>
@@ -10157,8 +10689,11 @@
       <c r="K241" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L241" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>203</v>
       </c>
@@ -10192,8 +10727,11 @@
       <c r="K242" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L242" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>207</v>
       </c>
@@ -10227,8 +10765,11 @@
       <c r="K243" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L243" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>209</v>
       </c>
@@ -10262,8 +10803,11 @@
       <c r="K244" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L244" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>210</v>
       </c>
@@ -10297,8 +10841,11 @@
       <c r="K245" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L245" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>212</v>
       </c>
@@ -10332,8 +10879,11 @@
       <c r="K246" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L246" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>215</v>
       </c>
@@ -10367,8 +10917,11 @@
       <c r="K247" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L247" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>217</v>
       </c>
@@ -10402,8 +10955,11 @@
       <c r="K248" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L248" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>218</v>
       </c>
@@ -10437,8 +10993,11 @@
       <c r="K249" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L249" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>225</v>
       </c>
@@ -10472,8 +11031,11 @@
       <c r="K250" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L250" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>227</v>
       </c>
@@ -10507,8 +11069,11 @@
       <c r="K251" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L251" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>232</v>
       </c>
@@ -10542,8 +11107,11 @@
       <c r="K252" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L252" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>238</v>
       </c>
@@ -10577,8 +11145,11 @@
       <c r="K253" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L253" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>243</v>
       </c>
@@ -10612,8 +11183,11 @@
       <c r="K254" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L254" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>249</v>
       </c>
@@ -10647,8 +11221,11 @@
       <c r="K255" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L255" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>250</v>
       </c>
@@ -10682,8 +11259,11 @@
       <c r="K256" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L256" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -10717,8 +11297,11 @@
       <c r="K257" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L257" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>260</v>
       </c>
@@ -10752,8 +11335,11 @@
       <c r="K258" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L258" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>260</v>
       </c>
@@ -10787,8 +11373,11 @@
       <c r="K259" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L259" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>260</v>
       </c>
@@ -10822,8 +11411,11 @@
       <c r="K260" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L260" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>267</v>
       </c>
@@ -10857,8 +11449,11 @@
       <c r="K261" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L261" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>270</v>
       </c>
@@ -10892,8 +11487,11 @@
       <c r="K262" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L262" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>274</v>
       </c>
@@ -10927,8 +11525,11 @@
       <c r="K263" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L263" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>278</v>
       </c>
@@ -10962,8 +11563,11 @@
       <c r="K264" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L264" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>281</v>
       </c>
@@ -10997,8 +11601,11 @@
       <c r="K265" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L265" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>285</v>
       </c>
@@ -11032,8 +11639,11 @@
       <c r="K266" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L266" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>290</v>
       </c>
@@ -11067,8 +11677,11 @@
       <c r="K267" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L267" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>293</v>
       </c>
@@ -11102,8 +11715,11 @@
       <c r="K268" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L268" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>298</v>
       </c>
@@ -11137,8 +11753,11 @@
       <c r="K269" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L269" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>301</v>
       </c>
@@ -11172,8 +11791,11 @@
       <c r="K270" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L270" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>307</v>
       </c>
@@ -11207,8 +11829,11 @@
       <c r="K271" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L271" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>312</v>
       </c>
@@ -11242,8 +11867,11 @@
       <c r="K272" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L272" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A273" s="5" t="s">
         <v>316</v>
       </c>
@@ -11277,8 +11905,11 @@
       <c r="K273" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L273" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>318</v>
       </c>
@@ -11312,8 +11943,11 @@
       <c r="K274" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L274" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>321</v>
       </c>
@@ -11347,8 +11981,11 @@
       <c r="K275" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L275" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>325</v>
       </c>
@@ -11382,8 +12019,11 @@
       <c r="K276" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L276" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>329</v>
       </c>
@@ -11417,8 +12057,11 @@
       <c r="K277" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L277" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>331</v>
       </c>
@@ -11452,8 +12095,11 @@
       <c r="K278" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L278" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>336</v>
       </c>
@@ -11487,8 +12133,11 @@
       <c r="K279" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L279" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>339</v>
       </c>
@@ -11522,8 +12171,11 @@
       <c r="K280" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L280" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>343</v>
       </c>
@@ -11557,8 +12209,11 @@
       <c r="K281" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L281" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>345</v>
       </c>
@@ -11592,8 +12247,11 @@
       <c r="K282" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L282" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>347</v>
       </c>
@@ -11627,8 +12285,11 @@
       <c r="K283" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L283" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>348</v>
       </c>
@@ -11662,8 +12323,11 @@
       <c r="K284" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L284" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>353</v>
       </c>
@@ -11697,8 +12361,11 @@
       <c r="K285" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L285" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>355</v>
       </c>
@@ -11732,8 +12399,11 @@
       <c r="K286" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L286" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>358</v>
       </c>
@@ -11767,8 +12437,11 @@
       <c r="K287" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L287" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>361</v>
       </c>
@@ -11802,8 +12475,11 @@
       <c r="K288" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="L288" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>363</v>
       </c>
@@ -11837,8 +12513,11 @@
       <c r="K289" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L289" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>369</v>
       </c>
@@ -11872,8 +12551,11 @@
       <c r="K290" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="L290" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>373</v>
       </c>
@@ -11907,8 +12589,11 @@
       <c r="K291" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L291" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>376</v>
       </c>
@@ -11942,8 +12627,11 @@
       <c r="K292" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L292" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>379</v>
       </c>
@@ -11977,8 +12665,11 @@
       <c r="K293" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="L293" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>383</v>
       </c>
@@ -12012,8 +12703,11 @@
       <c r="K294" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="L294" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>385</v>
       </c>
@@ -12047,8 +12741,11 @@
       <c r="K295" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="L295" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>389</v>
       </c>
@@ -12082,8 +12779,11 @@
       <c r="K296" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="L296" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>394</v>
       </c>
@@ -12117,8 +12817,11 @@
       <c r="K297" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L297" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>399</v>
       </c>
@@ -12152,8 +12855,11 @@
       <c r="K298" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L298" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>402</v>
       </c>
@@ -12187,8 +12893,11 @@
       <c r="K299" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L299" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>408</v>
       </c>
@@ -12222,8 +12931,11 @@
       <c r="K300" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L300" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>411</v>
       </c>
@@ -12257,8 +12969,11 @@
       <c r="K301" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L301" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>415</v>
       </c>
@@ -12292,8 +13007,11 @@
       <c r="K302" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L302" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>418</v>
       </c>
@@ -12327,8 +13045,11 @@
       <c r="K303" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L303" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>421</v>
       </c>
@@ -12362,8 +13083,11 @@
       <c r="K304" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="L304" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>425</v>
       </c>
@@ -12397,8 +13121,12 @@
       <c r="K305" s="8">
         <v>1</v>
       </c>
+      <c r="L305" s="9">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/app/public/data/danhsachthuoc.xlsx
+++ b/storage/app/public/data/danhsachthuoc.xlsx
@@ -1727,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="O304" sqref="O304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N199" sqref="N199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,7 +2531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
@@ -5567,7 +5567,9 @@
       <c r="K101" s="8">
         <v>4</v>
       </c>
-      <c r="L101" s="9"/>
+      <c r="L101" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="102" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
@@ -5603,7 +5605,9 @@
       <c r="K102" s="8">
         <v>4</v>
       </c>
-      <c r="L102" s="9"/>
+      <c r="L102" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="103" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
@@ -5639,7 +5643,9 @@
       <c r="K103" s="8">
         <v>4</v>
       </c>
-      <c r="L103" s="9"/>
+      <c r="L103" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="104" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
@@ -5675,7 +5681,9 @@
       <c r="K104" s="8">
         <v>4</v>
       </c>
-      <c r="L104" s="9"/>
+      <c r="L104" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
@@ -5711,7 +5719,9 @@
       <c r="K105" s="8">
         <v>4</v>
       </c>
-      <c r="L105" s="9"/>
+      <c r="L105" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
@@ -5747,7 +5757,9 @@
       <c r="K106" s="8">
         <v>4</v>
       </c>
-      <c r="L106" s="9"/>
+      <c r="L106" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
@@ -5783,7 +5795,9 @@
       <c r="K107" s="8">
         <v>4</v>
       </c>
-      <c r="L107" s="9"/>
+      <c r="L107" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
@@ -5819,7 +5833,9 @@
       <c r="K108" s="8">
         <v>4</v>
       </c>
-      <c r="L108" s="9"/>
+      <c r="L108" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="109" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
@@ -5855,7 +5871,9 @@
       <c r="K109" s="8">
         <v>4</v>
       </c>
-      <c r="L109" s="9"/>
+      <c r="L109" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
@@ -5891,7 +5909,9 @@
       <c r="K110" s="8">
         <v>4</v>
       </c>
-      <c r="L110" s="9"/>
+      <c r="L110" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
@@ -5927,7 +5947,9 @@
       <c r="K111" s="8">
         <v>4</v>
       </c>
-      <c r="L111" s="9"/>
+      <c r="L111" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
@@ -5963,7 +5985,9 @@
       <c r="K112" s="8">
         <v>4</v>
       </c>
-      <c r="L112" s="9"/>
+      <c r="L112" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="113" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
@@ -5999,7 +6023,9 @@
       <c r="K113" s="8">
         <v>4</v>
       </c>
-      <c r="L113" s="9"/>
+      <c r="L113" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
@@ -6035,7 +6061,9 @@
       <c r="K114" s="8">
         <v>4</v>
       </c>
-      <c r="L114" s="9"/>
+      <c r="L114" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
@@ -6071,7 +6099,9 @@
       <c r="K115" s="8">
         <v>4</v>
       </c>
-      <c r="L115" s="9"/>
+      <c r="L115" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="116" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
@@ -6107,7 +6137,9 @@
       <c r="K116" s="8">
         <v>4</v>
       </c>
-      <c r="L116" s="9"/>
+      <c r="L116" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
@@ -6143,7 +6175,9 @@
       <c r="K117" s="8">
         <v>4</v>
       </c>
-      <c r="L117" s="9"/>
+      <c r="L117" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="118" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
@@ -6179,7 +6213,9 @@
       <c r="K118" s="8">
         <v>4</v>
       </c>
-      <c r="L118" s="9"/>
+      <c r="L118" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
@@ -6215,7 +6251,9 @@
       <c r="K119" s="8">
         <v>4</v>
       </c>
-      <c r="L119" s="9"/>
+      <c r="L119" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="120" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
@@ -6251,7 +6289,9 @@
       <c r="K120" s="8">
         <v>4</v>
       </c>
-      <c r="L120" s="9"/>
+      <c r="L120" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
@@ -6287,7 +6327,9 @@
       <c r="K121" s="8">
         <v>4</v>
       </c>
-      <c r="L121" s="9"/>
+      <c r="L121" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
@@ -6323,7 +6365,9 @@
       <c r="K122" s="8">
         <v>4</v>
       </c>
-      <c r="L122" s="9"/>
+      <c r="L122" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="123" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
@@ -6359,7 +6403,9 @@
       <c r="K123" s="8">
         <v>4</v>
       </c>
-      <c r="L123" s="9"/>
+      <c r="L123" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="124" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
@@ -6395,7 +6441,9 @@
       <c r="K124" s="8">
         <v>4</v>
       </c>
-      <c r="L124" s="9"/>
+      <c r="L124" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="125" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
@@ -6431,7 +6479,9 @@
       <c r="K125" s="8">
         <v>4</v>
       </c>
-      <c r="L125" s="9"/>
+      <c r="L125" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -6467,7 +6517,9 @@
       <c r="K126" s="8">
         <v>4</v>
       </c>
-      <c r="L126" s="9"/>
+      <c r="L126" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -6503,7 +6555,9 @@
       <c r="K127" s="8">
         <v>4</v>
       </c>
-      <c r="L127" s="9"/>
+      <c r="L127" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="128" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -6539,7 +6593,9 @@
       <c r="K128" s="8">
         <v>4</v>
       </c>
-      <c r="L128" s="9"/>
+      <c r="L128" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="129" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -6575,7 +6631,9 @@
       <c r="K129" s="8">
         <v>4</v>
       </c>
-      <c r="L129" s="9"/>
+      <c r="L129" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="130" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
@@ -6611,7 +6669,9 @@
       <c r="K130" s="8">
         <v>4</v>
       </c>
-      <c r="L130" s="9"/>
+      <c r="L130" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="131" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
@@ -6647,7 +6707,9 @@
       <c r="K131" s="8">
         <v>4</v>
       </c>
-      <c r="L131" s="9"/>
+      <c r="L131" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="132" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
@@ -6683,7 +6745,9 @@
       <c r="K132" s="8">
         <v>4</v>
       </c>
-      <c r="L132" s="9"/>
+      <c r="L132" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="133" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
@@ -6719,7 +6783,9 @@
       <c r="K133" s="8">
         <v>4</v>
       </c>
-      <c r="L133" s="9"/>
+      <c r="L133" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="134" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
@@ -6755,7 +6821,9 @@
       <c r="K134" s="8">
         <v>4</v>
       </c>
-      <c r="L134" s="9"/>
+      <c r="L134" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
@@ -6791,7 +6859,9 @@
       <c r="K135" s="8">
         <v>4</v>
       </c>
-      <c r="L135" s="9"/>
+      <c r="L135" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="136" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
@@ -6827,7 +6897,9 @@
       <c r="K136" s="8">
         <v>4</v>
       </c>
-      <c r="L136" s="9"/>
+      <c r="L136" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="137" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
@@ -6863,7 +6935,9 @@
       <c r="K137" s="8">
         <v>4</v>
       </c>
-      <c r="L137" s="9"/>
+      <c r="L137" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="138" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
@@ -6899,7 +6973,9 @@
       <c r="K138" s="8">
         <v>4</v>
       </c>
-      <c r="L138" s="9"/>
+      <c r="L138" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="139" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
@@ -6935,7 +7011,9 @@
       <c r="K139" s="8">
         <v>4</v>
       </c>
-      <c r="L139" s="9"/>
+      <c r="L139" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="140" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
@@ -6971,7 +7049,9 @@
       <c r="K140" s="8">
         <v>4</v>
       </c>
-      <c r="L140" s="9"/>
+      <c r="L140" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="141" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
@@ -7007,7 +7087,9 @@
       <c r="K141" s="8">
         <v>4</v>
       </c>
-      <c r="L141" s="9"/>
+      <c r="L141" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="142" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
@@ -7043,7 +7125,9 @@
       <c r="K142" s="8">
         <v>4</v>
       </c>
-      <c r="L142" s="9"/>
+      <c r="L142" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="143" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
@@ -7079,7 +7163,9 @@
       <c r="K143" s="8">
         <v>4</v>
       </c>
-      <c r="L143" s="9"/>
+      <c r="L143" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="144" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
@@ -7115,7 +7201,9 @@
       <c r="K144" s="8">
         <v>4</v>
       </c>
-      <c r="L144" s="9"/>
+      <c r="L144" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="145" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
@@ -7151,7 +7239,9 @@
       <c r="K145" s="8">
         <v>4</v>
       </c>
-      <c r="L145" s="9"/>
+      <c r="L145" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="146" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
@@ -7187,7 +7277,9 @@
       <c r="K146" s="8">
         <v>4</v>
       </c>
-      <c r="L146" s="9"/>
+      <c r="L146" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
@@ -7223,7 +7315,9 @@
       <c r="K147" s="8">
         <v>4</v>
       </c>
-      <c r="L147" s="9"/>
+      <c r="L147" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="148" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
@@ -7259,7 +7353,9 @@
       <c r="K148" s="8">
         <v>4</v>
       </c>
-      <c r="L148" s="9"/>
+      <c r="L148" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="149" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
@@ -7295,7 +7391,9 @@
       <c r="K149" s="8">
         <v>4</v>
       </c>
-      <c r="L149" s="9"/>
+      <c r="L149" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="150" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
@@ -7331,7 +7429,9 @@
       <c r="K150" s="8">
         <v>4</v>
       </c>
-      <c r="L150" s="9"/>
+      <c r="L150" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="151" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
@@ -7367,7 +7467,9 @@
       <c r="K151" s="8">
         <v>4</v>
       </c>
-      <c r="L151" s="9"/>
+      <c r="L151" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="152" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
@@ -7403,7 +7505,9 @@
       <c r="K152" s="8">
         <v>4</v>
       </c>
-      <c r="L152" s="9"/>
+      <c r="L152" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="153" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
@@ -7439,7 +7543,9 @@
       <c r="K153" s="8">
         <v>4</v>
       </c>
-      <c r="L153" s="9"/>
+      <c r="L153" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="154" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
@@ -7475,7 +7581,9 @@
       <c r="K154" s="8">
         <v>4</v>
       </c>
-      <c r="L154" s="9"/>
+      <c r="L154" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="155" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
@@ -7511,7 +7619,9 @@
       <c r="K155" s="8">
         <v>4</v>
       </c>
-      <c r="L155" s="9"/>
+      <c r="L155" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="156" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
@@ -7547,7 +7657,9 @@
       <c r="K156" s="8">
         <v>4</v>
       </c>
-      <c r="L156" s="9"/>
+      <c r="L156" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="157" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
@@ -7583,7 +7695,9 @@
       <c r="K157" s="8">
         <v>4</v>
       </c>
-      <c r="L157" s="9"/>
+      <c r="L157" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="158" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
@@ -7619,7 +7733,9 @@
       <c r="K158" s="8">
         <v>4</v>
       </c>
-      <c r="L158" s="9"/>
+      <c r="L158" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="159" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
@@ -7655,7 +7771,9 @@
       <c r="K159" s="8">
         <v>4</v>
       </c>
-      <c r="L159" s="9"/>
+      <c r="L159" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="160" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
@@ -7691,7 +7809,9 @@
       <c r="K160" s="8">
         <v>4</v>
       </c>
-      <c r="L160" s="9"/>
+      <c r="L160" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="161" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
@@ -7727,7 +7847,9 @@
       <c r="K161" s="8">
         <v>4</v>
       </c>
-      <c r="L161" s="9"/>
+      <c r="L161" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="162" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
@@ -7763,7 +7885,9 @@
       <c r="K162" s="8">
         <v>4</v>
       </c>
-      <c r="L162" s="9"/>
+      <c r="L162" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="163" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
@@ -7799,7 +7923,9 @@
       <c r="K163" s="8">
         <v>4</v>
       </c>
-      <c r="L163" s="9"/>
+      <c r="L163" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="164" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
@@ -7835,7 +7961,9 @@
       <c r="K164" s="8">
         <v>4</v>
       </c>
-      <c r="L164" s="9"/>
+      <c r="L164" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="165" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
@@ -7871,7 +7999,9 @@
       <c r="K165" s="8">
         <v>4</v>
       </c>
-      <c r="L165" s="9"/>
+      <c r="L165" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="166" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
@@ -7907,7 +8037,9 @@
       <c r="K166" s="8">
         <v>4</v>
       </c>
-      <c r="L166" s="9"/>
+      <c r="L166" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="167" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
@@ -7943,7 +8075,9 @@
       <c r="K167" s="8">
         <v>4</v>
       </c>
-      <c r="L167" s="9"/>
+      <c r="L167" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="168" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
@@ -7979,7 +8113,9 @@
       <c r="K168" s="8">
         <v>4</v>
       </c>
-      <c r="L168" s="9"/>
+      <c r="L168" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="169" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
@@ -8015,7 +8151,9 @@
       <c r="K169" s="8">
         <v>4</v>
       </c>
-      <c r="L169" s="9"/>
+      <c r="L169" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
@@ -8051,7 +8189,9 @@
       <c r="K170" s="8">
         <v>4</v>
       </c>
-      <c r="L170" s="9"/>
+      <c r="L170" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="171" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
@@ -8087,7 +8227,9 @@
       <c r="K171" s="8">
         <v>4</v>
       </c>
-      <c r="L171" s="9"/>
+      <c r="L171" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="172" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
@@ -8123,7 +8265,9 @@
       <c r="K172" s="8">
         <v>4</v>
       </c>
-      <c r="L172" s="9"/>
+      <c r="L172" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="173" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
@@ -8159,7 +8303,9 @@
       <c r="K173" s="8">
         <v>4</v>
       </c>
-      <c r="L173" s="9"/>
+      <c r="L173" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="174" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
@@ -8195,7 +8341,9 @@
       <c r="K174" s="8">
         <v>4</v>
       </c>
-      <c r="L174" s="9"/>
+      <c r="L174" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="175" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
@@ -8231,7 +8379,9 @@
       <c r="K175" s="8">
         <v>4</v>
       </c>
-      <c r="L175" s="9"/>
+      <c r="L175" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="176" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
@@ -8267,7 +8417,9 @@
       <c r="K176" s="8">
         <v>4</v>
       </c>
-      <c r="L176" s="9"/>
+      <c r="L176" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="177" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
@@ -8303,7 +8455,9 @@
       <c r="K177" s="8">
         <v>4</v>
       </c>
-      <c r="L177" s="9"/>
+      <c r="L177" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="178" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
@@ -8339,7 +8493,9 @@
       <c r="K178" s="8">
         <v>4</v>
       </c>
-      <c r="L178" s="9"/>
+      <c r="L178" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
@@ -8375,7 +8531,9 @@
       <c r="K179" s="8">
         <v>4</v>
       </c>
-      <c r="L179" s="9"/>
+      <c r="L179" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="180" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
@@ -8411,7 +8569,9 @@
       <c r="K180" s="8">
         <v>4</v>
       </c>
-      <c r="L180" s="9"/>
+      <c r="L180" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="181" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
@@ -8447,7 +8607,9 @@
       <c r="K181" s="8">
         <v>4</v>
       </c>
-      <c r="L181" s="9"/>
+      <c r="L181" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="182" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
@@ -8483,7 +8645,9 @@
       <c r="K182" s="8">
         <v>4</v>
       </c>
-      <c r="L182" s="9"/>
+      <c r="L182" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="183" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
@@ -8519,7 +8683,9 @@
       <c r="K183" s="8">
         <v>4</v>
       </c>
-      <c r="L183" s="9"/>
+      <c r="L183" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="184" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
@@ -8555,7 +8721,9 @@
       <c r="K184" s="8">
         <v>4</v>
       </c>
-      <c r="L184" s="9"/>
+      <c r="L184" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="185" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
@@ -8591,7 +8759,9 @@
       <c r="K185" s="8">
         <v>4</v>
       </c>
-      <c r="L185" s="9"/>
+      <c r="L185" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="186" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
@@ -8627,7 +8797,9 @@
       <c r="K186" s="8">
         <v>4</v>
       </c>
-      <c r="L186" s="9"/>
+      <c r="L186" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="187" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
@@ -8663,7 +8835,9 @@
       <c r="K187" s="8">
         <v>4</v>
       </c>
-      <c r="L187" s="9"/>
+      <c r="L187" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="188" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
@@ -8699,7 +8873,9 @@
       <c r="K188" s="8">
         <v>4</v>
       </c>
-      <c r="L188" s="9"/>
+      <c r="L188" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="189" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
@@ -8735,7 +8911,9 @@
       <c r="K189" s="8">
         <v>4</v>
       </c>
-      <c r="L189" s="9"/>
+      <c r="L189" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="190" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
@@ -8771,7 +8949,9 @@
       <c r="K190" s="8">
         <v>4</v>
       </c>
-      <c r="L190" s="9"/>
+      <c r="L190" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="191" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
@@ -8807,7 +8987,9 @@
       <c r="K191" s="8">
         <v>4</v>
       </c>
-      <c r="L191" s="9"/>
+      <c r="L191" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="192" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
@@ -8843,7 +9025,9 @@
       <c r="K192" s="8">
         <v>4</v>
       </c>
-      <c r="L192" s="9"/>
+      <c r="L192" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="193" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
@@ -8879,7 +9063,9 @@
       <c r="K193" s="8">
         <v>4</v>
       </c>
-      <c r="L193" s="9"/>
+      <c r="L193" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="194" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
@@ -8915,7 +9101,9 @@
       <c r="K194" s="8">
         <v>4</v>
       </c>
-      <c r="L194" s="9"/>
+      <c r="L194" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="195" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
@@ -8951,7 +9139,9 @@
       <c r="K195" s="8">
         <v>4</v>
       </c>
-      <c r="L195" s="9"/>
+      <c r="L195" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="196" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
@@ -8987,7 +9177,9 @@
       <c r="K196" s="8">
         <v>4</v>
       </c>
-      <c r="L196" s="9"/>
+      <c r="L196" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="197" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
@@ -9023,7 +9215,9 @@
       <c r="K197" s="8">
         <v>4</v>
       </c>
-      <c r="L197" s="9"/>
+      <c r="L197" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="198" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
@@ -9059,7 +9253,9 @@
       <c r="K198" s="8">
         <v>4</v>
       </c>
-      <c r="L198" s="9"/>
+      <c r="L198" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="199" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
@@ -9095,7 +9291,9 @@
       <c r="K199" s="8">
         <v>4</v>
       </c>
-      <c r="L199" s="9"/>
+      <c r="L199" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="200" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">

--- a/storage/app/public/data/danhsachthuoc.xlsx
+++ b/storage/app/public/data/danhsachthuoc.xlsx
@@ -1728,10 +1728,14 @@
   <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N199" sqref="N199"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1838,7 +1842,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="8">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K3" s="8">
         <v>3</v>

--- a/storage/app/public/data/danhsachthuoc.xlsx
+++ b/storage/app/public/data/danhsachthuoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="430">
   <si>
     <t>Tên thuốc</t>
   </si>
@@ -1725,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L305"/>
+  <dimension ref="A1:L404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O305" sqref="O305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13327,6 +13327,3768 @@
         <v>16</v>
       </c>
     </row>
+    <row r="306" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="5">
+        <v>100</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" s="6">
+        <v>42000</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I306" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J306" s="8">
+        <v>35</v>
+      </c>
+      <c r="K306" s="8">
+        <v>2</v>
+      </c>
+      <c r="L306" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A307" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307" s="5">
+        <v>100</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G307" s="6">
+        <v>37250</v>
+      </c>
+      <c r="H307" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I307" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J307" s="8">
+        <v>86</v>
+      </c>
+      <c r="K307" s="8">
+        <v>2</v>
+      </c>
+      <c r="L307" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A308" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" s="5">
+        <v>100</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G308" s="6">
+        <v>21000</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I308" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J308" s="8">
+        <v>27</v>
+      </c>
+      <c r="K308" s="8">
+        <v>2</v>
+      </c>
+      <c r="L308" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A309" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B309" s="5">
+        <v>100</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G309" s="6">
+        <v>2700000</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I309" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J309" s="8">
+        <v>299</v>
+      </c>
+      <c r="K309" s="8">
+        <v>2</v>
+      </c>
+      <c r="L309" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B310" s="5">
+        <v>100</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G310" s="6">
+        <v>23940</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I310" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J310" s="8">
+        <v>35</v>
+      </c>
+      <c r="K310" s="8">
+        <v>2</v>
+      </c>
+      <c r="L310" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A311" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B311" s="5">
+        <v>100</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G311" s="6">
+        <v>11800</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I311" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J311" s="8">
+        <v>56</v>
+      </c>
+      <c r="K311" s="8">
+        <v>2</v>
+      </c>
+      <c r="L311" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A312" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B312" s="5">
+        <v>100</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G312" s="6">
+        <v>10500</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I312" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J312" s="8">
+        <v>205</v>
+      </c>
+      <c r="K312" s="8">
+        <v>2</v>
+      </c>
+      <c r="L312" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A313" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B313" s="5">
+        <v>100</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G313" s="6">
+        <v>52500</v>
+      </c>
+      <c r="H313" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I313" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J313" s="8">
+        <v>607</v>
+      </c>
+      <c r="K313" s="8">
+        <v>2</v>
+      </c>
+      <c r="L313" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A314" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B314" s="5">
+        <v>100</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G314" s="6">
+        <v>120000</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I314" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J314" s="8">
+        <v>359</v>
+      </c>
+      <c r="K314" s="8">
+        <v>2</v>
+      </c>
+      <c r="L314" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B315" s="5">
+        <v>100</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G315" s="6">
+        <v>15500</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I315" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J315" s="8">
+        <v>304</v>
+      </c>
+      <c r="K315" s="8">
+        <v>2</v>
+      </c>
+      <c r="L315" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A316" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B316" s="5">
+        <v>100</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G316" s="6">
+        <v>413</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I316" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J316" s="8">
+        <v>25</v>
+      </c>
+      <c r="K316" s="8">
+        <v>2</v>
+      </c>
+      <c r="L316" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A317" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B317" s="5">
+        <v>100</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G317" s="6">
+        <v>159000</v>
+      </c>
+      <c r="H317" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I317" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J317" s="8">
+        <v>405</v>
+      </c>
+      <c r="K317" s="8">
+        <v>2</v>
+      </c>
+      <c r="L317" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B318" s="5">
+        <v>100</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G318" s="6">
+        <v>55600</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I318" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J318" s="8">
+        <v>25</v>
+      </c>
+      <c r="K318" s="8">
+        <v>2</v>
+      </c>
+      <c r="L318" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A319" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B319" s="5">
+        <v>100</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G319" s="6">
+        <v>37120</v>
+      </c>
+      <c r="H319" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I319" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J319" s="8">
+        <v>302</v>
+      </c>
+      <c r="K319" s="8">
+        <v>2</v>
+      </c>
+      <c r="L319" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B320" s="5">
+        <v>100</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G320" s="6">
+        <v>18375</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I320" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J320" s="8">
+        <v>582</v>
+      </c>
+      <c r="K320" s="8">
+        <v>2</v>
+      </c>
+      <c r="L320" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B321" s="5">
+        <v>100</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G321" s="6">
+        <v>14050</v>
+      </c>
+      <c r="H321" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I321" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J321" s="8">
+        <v>191</v>
+      </c>
+      <c r="K321" s="8">
+        <v>2</v>
+      </c>
+      <c r="L321" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A322" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B322" s="5">
+        <v>100</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G322" s="6">
+        <v>4410</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I322" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J322" s="8">
+        <v>47</v>
+      </c>
+      <c r="K322" s="8">
+        <v>2</v>
+      </c>
+      <c r="L322" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A323" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B323" s="5">
+        <v>100</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G323" s="6">
+        <v>375000</v>
+      </c>
+      <c r="H323" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I323" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J323" s="8">
+        <v>151</v>
+      </c>
+      <c r="K323" s="8">
+        <v>2</v>
+      </c>
+      <c r="L323" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A324" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B324" s="5">
+        <v>100</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G324" s="6">
+        <v>118168</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I324" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J324" s="8">
+        <v>171</v>
+      </c>
+      <c r="K324" s="8">
+        <v>2</v>
+      </c>
+      <c r="L324" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A325" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B325" s="5">
+        <v>100</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" s="6">
+        <v>117000</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I325" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J325" s="8">
+        <v>176</v>
+      </c>
+      <c r="K325" s="8">
+        <v>2</v>
+      </c>
+      <c r="L325" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A326" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B326" s="5">
+        <v>100</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G326" s="6">
+        <v>32300</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I326" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J326" s="8">
+        <v>278</v>
+      </c>
+      <c r="K326" s="8">
+        <v>2</v>
+      </c>
+      <c r="L326" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A327" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B327" s="5">
+        <v>100</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G327" s="6">
+        <v>94500</v>
+      </c>
+      <c r="H327" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I327" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J327" s="8">
+        <v>681</v>
+      </c>
+      <c r="K327" s="8">
+        <v>2</v>
+      </c>
+      <c r="L327" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A328" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B328" s="5">
+        <v>100</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G328" s="6">
+        <v>3578600</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I328" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J328" s="8">
+        <v>475</v>
+      </c>
+      <c r="K328" s="8">
+        <v>2</v>
+      </c>
+      <c r="L328" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B329" s="5">
+        <v>100</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G329" s="6">
+        <v>44000</v>
+      </c>
+      <c r="H329" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I329" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J329" s="8">
+        <v>243</v>
+      </c>
+      <c r="K329" s="8">
+        <v>2</v>
+      </c>
+      <c r="L329" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A330" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B330" s="5">
+        <v>100</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G330" s="6">
+        <v>46146</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I330" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J330" s="8">
+        <v>111</v>
+      </c>
+      <c r="K330" s="8">
+        <v>2</v>
+      </c>
+      <c r="L330" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B331" s="5">
+        <v>100</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" s="6">
+        <v>31710</v>
+      </c>
+      <c r="H331" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I331" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J331" s="8">
+        <v>175</v>
+      </c>
+      <c r="K331" s="8">
+        <v>2</v>
+      </c>
+      <c r="L331" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A332" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B332" s="5">
+        <v>100</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" s="6">
+        <v>104450</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I332" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J332" s="8">
+        <v>570</v>
+      </c>
+      <c r="K332" s="8">
+        <v>2</v>
+      </c>
+      <c r="L332" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A333" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B333" s="5">
+        <v>100</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G333" s="6">
+        <v>51400</v>
+      </c>
+      <c r="H333" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I333" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J333" s="8">
+        <v>377</v>
+      </c>
+      <c r="K333" s="8">
+        <v>2</v>
+      </c>
+      <c r="L333" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B334" s="5">
+        <v>100</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" s="6">
+        <v>15603</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I334" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J334" s="8">
+        <v>600</v>
+      </c>
+      <c r="K334" s="8">
+        <v>2</v>
+      </c>
+      <c r="L334" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A335" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B335" s="5">
+        <v>100</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G335" s="6">
+        <v>9345</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I335" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J335" s="8">
+        <v>256</v>
+      </c>
+      <c r="K335" s="8">
+        <v>2</v>
+      </c>
+      <c r="L335" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A336" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B336" s="5">
+        <v>100</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G336" s="6">
+        <v>6930</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I336" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J336" s="8">
+        <v>706</v>
+      </c>
+      <c r="K336" s="8">
+        <v>2</v>
+      </c>
+      <c r="L336" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B337" s="5">
+        <v>100</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G337" s="6">
+        <v>9450</v>
+      </c>
+      <c r="H337" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I337" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J337" s="8">
+        <v>476</v>
+      </c>
+      <c r="K337" s="8">
+        <v>2</v>
+      </c>
+      <c r="L337" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A338" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B338" s="5">
+        <v>100</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G338" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I338" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J338" s="8">
+        <v>71</v>
+      </c>
+      <c r="K338" s="8">
+        <v>2</v>
+      </c>
+      <c r="L338" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A339" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B339" s="5">
+        <v>100</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G339" s="6">
+        <v>11913</v>
+      </c>
+      <c r="H339" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I339" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J339" s="8">
+        <v>510</v>
+      </c>
+      <c r="K339" s="8">
+        <v>2</v>
+      </c>
+      <c r="L339" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B340" s="5">
+        <v>100</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G340" s="6">
+        <v>400</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I340" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J340" s="8">
+        <v>202</v>
+      </c>
+      <c r="K340" s="8">
+        <v>2</v>
+      </c>
+      <c r="L340" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A341" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B341" s="5">
+        <v>100</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G341" s="6">
+        <v>63200</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I341" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J341" s="8">
+        <v>115</v>
+      </c>
+      <c r="K341" s="8">
+        <v>2</v>
+      </c>
+      <c r="L341" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B342" s="5">
+        <v>100</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G342" s="6">
+        <v>18066</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I342" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J342" s="8">
+        <v>661</v>
+      </c>
+      <c r="K342" s="8">
+        <v>2</v>
+      </c>
+      <c r="L342" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A343" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B343" s="5">
+        <v>100</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G343" s="6">
+        <v>18066</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I343" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J343" s="8">
+        <v>699</v>
+      </c>
+      <c r="K343" s="8">
+        <v>2</v>
+      </c>
+      <c r="L343" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A344" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B344" s="5">
+        <v>100</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G344" s="6">
+        <v>6185</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I344" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J344" s="8">
+        <v>124</v>
+      </c>
+      <c r="K344" s="8">
+        <v>2</v>
+      </c>
+      <c r="L344" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A345" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B345" s="5">
+        <v>100</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G345" s="6">
+        <v>920</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I345" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J345" s="8">
+        <v>480</v>
+      </c>
+      <c r="K345" s="8">
+        <v>2</v>
+      </c>
+      <c r="L345" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B346" s="5">
+        <v>100</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G346" s="6">
+        <v>3500</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I346" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J346" s="8">
+        <v>645</v>
+      </c>
+      <c r="K346" s="8">
+        <v>2</v>
+      </c>
+      <c r="L346" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A347" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B347" s="5">
+        <v>100</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G347" s="6">
+        <v>18726</v>
+      </c>
+      <c r="H347" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I347" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J347" s="8">
+        <v>108</v>
+      </c>
+      <c r="K347" s="8">
+        <v>2</v>
+      </c>
+      <c r="L347" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A348" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B348" s="5">
+        <v>100</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G348" s="6">
+        <v>14222</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I348" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J348" s="8">
+        <v>177</v>
+      </c>
+      <c r="K348" s="8">
+        <v>2</v>
+      </c>
+      <c r="L348" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A349" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B349" s="5">
+        <v>100</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G349" s="6">
+        <v>15645</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I349" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J349" s="8">
+        <v>286</v>
+      </c>
+      <c r="K349" s="8">
+        <v>2</v>
+      </c>
+      <c r="L349" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A350" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B350" s="5">
+        <v>100</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G350" s="6">
+        <v>1750</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I350" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J350" s="8">
+        <v>442</v>
+      </c>
+      <c r="K350" s="8">
+        <v>2</v>
+      </c>
+      <c r="L350" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B351" s="5">
+        <v>100</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G351" s="6">
+        <v>775</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I351" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J351" s="8">
+        <v>177</v>
+      </c>
+      <c r="K351" s="8">
+        <v>2</v>
+      </c>
+      <c r="L351" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B352" s="5">
+        <v>100</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G352" s="6">
+        <v>800</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I352" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J352" s="8">
+        <v>272</v>
+      </c>
+      <c r="K352" s="8">
+        <v>2</v>
+      </c>
+      <c r="L352" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A353" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B353" s="5">
+        <v>100</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G353" s="6">
+        <v>15645</v>
+      </c>
+      <c r="H353" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I353" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J353" s="8">
+        <v>496</v>
+      </c>
+      <c r="K353" s="8">
+        <v>2</v>
+      </c>
+      <c r="L353" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A354" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B354" s="5">
+        <v>100</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G354" s="6">
+        <v>13986</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I354" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J354" s="8">
+        <v>43</v>
+      </c>
+      <c r="K354" s="8">
+        <v>2</v>
+      </c>
+      <c r="L354" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B355" s="5">
+        <v>100</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G355" s="6">
+        <v>282975</v>
+      </c>
+      <c r="H355" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I355" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J355" s="8">
+        <v>565</v>
+      </c>
+      <c r="K355" s="8">
+        <v>2</v>
+      </c>
+      <c r="L355" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B356" s="5">
+        <v>100</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G356" s="6">
+        <v>154350</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I356" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J356" s="8">
+        <v>309</v>
+      </c>
+      <c r="K356" s="8">
+        <v>2</v>
+      </c>
+      <c r="L356" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A357" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B357" s="5">
+        <v>100</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G357" s="6">
+        <v>6800</v>
+      </c>
+      <c r="H357" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I357" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J357" s="8">
+        <v>260</v>
+      </c>
+      <c r="K357" s="8">
+        <v>2</v>
+      </c>
+      <c r="L357" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B358" s="5">
+        <v>100</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G358" s="6">
+        <v>19900</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I358" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J358" s="8">
+        <v>186</v>
+      </c>
+      <c r="K358" s="8">
+        <v>2</v>
+      </c>
+      <c r="L358" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B359" s="5">
+        <v>100</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G359" s="6">
+        <v>47500</v>
+      </c>
+      <c r="H359" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I359" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J359" s="8">
+        <v>652</v>
+      </c>
+      <c r="K359" s="8">
+        <v>2</v>
+      </c>
+      <c r="L359" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A360" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B360" s="5">
+        <v>100</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G360" s="6">
+        <v>8800</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I360" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J360" s="8">
+        <v>20</v>
+      </c>
+      <c r="K360" s="8">
+        <v>2</v>
+      </c>
+      <c r="L360" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A361" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B361" s="5">
+        <v>100</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G361" s="6">
+        <v>5513</v>
+      </c>
+      <c r="H361" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I361" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J361" s="8">
+        <v>321</v>
+      </c>
+      <c r="K361" s="8">
+        <v>2</v>
+      </c>
+      <c r="L361" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A362" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B362" s="5">
+        <v>100</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G362" s="6">
+        <v>7800</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I362" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J362" s="8">
+        <v>143</v>
+      </c>
+      <c r="K362" s="8">
+        <v>2</v>
+      </c>
+      <c r="L362" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A363" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B363" s="5">
+        <v>100</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G363" s="6">
+        <v>51</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I363" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J363" s="8">
+        <v>382</v>
+      </c>
+      <c r="K363" s="8">
+        <v>2</v>
+      </c>
+      <c r="L363" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B364" s="5">
+        <v>100</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G364" s="6">
+        <v>9122</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I364" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J364" s="8">
+        <v>582</v>
+      </c>
+      <c r="K364" s="8">
+        <v>2</v>
+      </c>
+      <c r="L364" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B365" s="5">
+        <v>100</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G365" s="6">
+        <v>16189</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I365" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J365" s="8">
+        <v>669</v>
+      </c>
+      <c r="K365" s="8">
+        <v>2</v>
+      </c>
+      <c r="L365" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A366" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B366" s="5">
+        <v>100</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G366" s="6">
+        <v>22761</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I366" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J366" s="8">
+        <v>485</v>
+      </c>
+      <c r="K366" s="8">
+        <v>2</v>
+      </c>
+      <c r="L366" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A367" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B367" s="5">
+        <v>100</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G367" s="6">
+        <v>800</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I367" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J367" s="8">
+        <v>617</v>
+      </c>
+      <c r="K367" s="8">
+        <v>2</v>
+      </c>
+      <c r="L367" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B368" s="5">
+        <v>100</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G368" s="6">
+        <v>20500</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I368" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J368" s="8">
+        <v>128</v>
+      </c>
+      <c r="K368" s="8">
+        <v>2</v>
+      </c>
+      <c r="L368" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A369" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B369" s="5">
+        <v>100</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G369" s="6">
+        <v>6489</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I369" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J369" s="8">
+        <v>121</v>
+      </c>
+      <c r="K369" s="8">
+        <v>2</v>
+      </c>
+      <c r="L369" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A370" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B370" s="5">
+        <v>100</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G370" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I370" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J370" s="8">
+        <v>417</v>
+      </c>
+      <c r="K370" s="8">
+        <v>2</v>
+      </c>
+      <c r="L370" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A371" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B371" s="5">
+        <v>100</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G371" s="6">
+        <v>4900</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I371" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J371" s="8">
+        <v>288</v>
+      </c>
+      <c r="K371" s="8">
+        <v>2</v>
+      </c>
+      <c r="L371" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A372" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B372" s="5">
+        <v>100</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G372" s="6">
+        <v>33000</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I372" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J372" s="8">
+        <v>47</v>
+      </c>
+      <c r="K372" s="8">
+        <v>2</v>
+      </c>
+      <c r="L372" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A373" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B373" s="5">
+        <v>100</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G373" s="6">
+        <v>3360</v>
+      </c>
+      <c r="H373" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I373" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J373" s="8">
+        <v>454</v>
+      </c>
+      <c r="K373" s="8">
+        <v>2</v>
+      </c>
+      <c r="L373" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A374" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B374" s="5">
+        <v>100</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G374" s="6">
+        <v>544</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I374" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J374" s="8">
+        <v>63</v>
+      </c>
+      <c r="K374" s="8">
+        <v>2</v>
+      </c>
+      <c r="L374" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B375" s="5">
+        <v>100</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G375" s="6">
+        <v>129</v>
+      </c>
+      <c r="H375" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I375" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J375" s="8">
+        <v>115</v>
+      </c>
+      <c r="K375" s="8">
+        <v>2</v>
+      </c>
+      <c r="L375" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B376" s="5">
+        <v>100</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G376" s="6">
+        <v>15500</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I376" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J376" s="8">
+        <v>491</v>
+      </c>
+      <c r="K376" s="8">
+        <v>2</v>
+      </c>
+      <c r="L376" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A377" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B377" s="5">
+        <v>100</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G377" s="6">
+        <v>44500</v>
+      </c>
+      <c r="H377" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I377" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J377" s="8">
+        <v>73</v>
+      </c>
+      <c r="K377" s="8">
+        <v>2</v>
+      </c>
+      <c r="L377" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A378" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B378" s="5">
+        <v>100</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G378" s="6">
+        <v>44625</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I378" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J378" s="8">
+        <v>680</v>
+      </c>
+      <c r="K378" s="8">
+        <v>2</v>
+      </c>
+      <c r="L378" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B379" s="5">
+        <v>100</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G379" s="6">
+        <v>97</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I379" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J379" s="8">
+        <v>292</v>
+      </c>
+      <c r="K379" s="8">
+        <v>2</v>
+      </c>
+      <c r="L379" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A380" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B380" s="5">
+        <v>100</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G380" s="6">
+        <v>1400</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I380" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J380" s="8">
+        <v>266</v>
+      </c>
+      <c r="K380" s="8">
+        <v>2</v>
+      </c>
+      <c r="L380" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A381" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B381" s="5">
+        <v>100</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G381" s="6">
+        <v>17640</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I381" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J381" s="8">
+        <v>666</v>
+      </c>
+      <c r="K381" s="8">
+        <v>2</v>
+      </c>
+      <c r="L381" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B382" s="5">
+        <v>100</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" s="6">
+        <v>47730</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I382" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J382" s="8">
+        <v>289</v>
+      </c>
+      <c r="K382" s="8">
+        <v>2</v>
+      </c>
+      <c r="L382" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A383" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B383" s="5">
+        <v>100</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G383" s="6">
+        <v>304</v>
+      </c>
+      <c r="H383" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I383" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J383" s="8">
+        <v>194</v>
+      </c>
+      <c r="K383" s="8">
+        <v>2</v>
+      </c>
+      <c r="L383" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A384" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B384" s="5">
+        <v>100</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G384" s="6">
+        <v>1100</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I384" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J384" s="8">
+        <v>97</v>
+      </c>
+      <c r="K384" s="8">
+        <v>2</v>
+      </c>
+      <c r="L384" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A385" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B385" s="5">
+        <v>100</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G385" s="6">
+        <v>367</v>
+      </c>
+      <c r="H385" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I385" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J385" s="8">
+        <v>638</v>
+      </c>
+      <c r="K385" s="8">
+        <v>2</v>
+      </c>
+      <c r="L385" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A386" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B386" s="5">
+        <v>100</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G386" s="6">
+        <v>7999</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I386" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J386" s="8">
+        <v>623</v>
+      </c>
+      <c r="K386" s="8">
+        <v>2</v>
+      </c>
+      <c r="L386" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A387" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B387" s="5">
+        <v>100</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G387" s="6">
+        <v>7582</v>
+      </c>
+      <c r="H387" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I387" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J387" s="8">
+        <v>447</v>
+      </c>
+      <c r="K387" s="8">
+        <v>2</v>
+      </c>
+      <c r="L387" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A388" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B388" s="5">
+        <v>100</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G388" s="6">
+        <v>6993</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I388" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J388" s="8">
+        <v>624</v>
+      </c>
+      <c r="K388" s="8">
+        <v>2</v>
+      </c>
+      <c r="L388" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A389" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B389" s="5">
+        <v>100</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G389" s="6">
+        <v>13800</v>
+      </c>
+      <c r="H389" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I389" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J389" s="8">
+        <v>82</v>
+      </c>
+      <c r="K389" s="8">
+        <v>2</v>
+      </c>
+      <c r="L389" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A390" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B390" s="5">
+        <v>100</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G390" s="6">
+        <v>615</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="I390" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J390" s="8">
+        <v>562</v>
+      </c>
+      <c r="K390" s="8">
+        <v>2</v>
+      </c>
+      <c r="L390" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A391" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B391" s="5">
+        <v>100</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G391" s="6">
+        <v>325</v>
+      </c>
+      <c r="H391" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I391" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J391" s="8">
+        <v>183</v>
+      </c>
+      <c r="K391" s="8">
+        <v>2</v>
+      </c>
+      <c r="L391" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A392" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B392" s="5">
+        <v>100</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G392" s="6">
+        <v>294</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I392" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J392" s="8">
+        <v>458</v>
+      </c>
+      <c r="K392" s="8">
+        <v>2</v>
+      </c>
+      <c r="L392" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A393" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B393" s="5">
+        <v>100</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G393" s="6">
+        <v>3600</v>
+      </c>
+      <c r="H393" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I393" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J393" s="8">
+        <v>425</v>
+      </c>
+      <c r="K393" s="8">
+        <v>2</v>
+      </c>
+      <c r="L393" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A394" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B394" s="5">
+        <v>100</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G394" s="6">
+        <v>578</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I394" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J394" s="8">
+        <v>405</v>
+      </c>
+      <c r="K394" s="8">
+        <v>2</v>
+      </c>
+      <c r="L394" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A395" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B395" s="5">
+        <v>100</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G395" s="6">
+        <v>11513216</v>
+      </c>
+      <c r="H395" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I395" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="J395" s="8">
+        <v>440</v>
+      </c>
+      <c r="K395" s="8">
+        <v>2</v>
+      </c>
+      <c r="L395" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A396" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B396" s="5">
+        <v>100</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G396" s="6">
+        <v>3186</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I396" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J396" s="8">
+        <v>448</v>
+      </c>
+      <c r="K396" s="8">
+        <v>2</v>
+      </c>
+      <c r="L396" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A397" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B397" s="5">
+        <v>100</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G397" s="6">
+        <v>21945</v>
+      </c>
+      <c r="H397" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I397" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J397" s="8">
+        <v>368</v>
+      </c>
+      <c r="K397" s="8">
+        <v>2</v>
+      </c>
+      <c r="L397" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A398" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B398" s="5">
+        <v>100</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G398" s="6">
+        <v>114180</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I398" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J398" s="8">
+        <v>504</v>
+      </c>
+      <c r="K398" s="8">
+        <v>2</v>
+      </c>
+      <c r="L398" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A399" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B399" s="5">
+        <v>100</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G399" s="6">
+        <v>98614</v>
+      </c>
+      <c r="H399" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I399" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J399" s="8">
+        <v>300</v>
+      </c>
+      <c r="K399" s="8">
+        <v>2</v>
+      </c>
+      <c r="L399" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A400" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B400" s="5">
+        <v>100</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G400" s="6">
+        <v>10900</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I400" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J400" s="8">
+        <v>620</v>
+      </c>
+      <c r="K400" s="8">
+        <v>2</v>
+      </c>
+      <c r="L400" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B401" s="5">
+        <v>100</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G401" s="6">
+        <v>87870</v>
+      </c>
+      <c r="H401" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I401" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J401" s="8">
+        <v>234</v>
+      </c>
+      <c r="K401" s="8">
+        <v>2</v>
+      </c>
+      <c r="L401" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A402" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B402" s="5">
+        <v>100</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G402" s="6">
+        <v>21425464</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I402" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J402" s="8">
+        <v>544</v>
+      </c>
+      <c r="K402" s="8">
+        <v>2</v>
+      </c>
+      <c r="L402" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A403" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B403" s="5">
+        <v>100</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G403" s="6">
+        <v>11818800</v>
+      </c>
+      <c r="H403" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I403" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J403" s="8">
+        <v>443</v>
+      </c>
+      <c r="K403" s="8">
+        <v>2</v>
+      </c>
+      <c r="L403" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A404" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B404" s="5">
+        <v>100</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G404" s="6">
+        <v>2200</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I404" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J404" s="8">
+        <v>59</v>
+      </c>
+      <c r="K404" s="8">
+        <v>2</v>
+      </c>
+      <c r="L404" s="9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
